--- a/FB_data.xlsx
+++ b/FB_data.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25725"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-440" windowWidth="25600" windowHeight="16000" activeTab="1"/>
+    <workbookView xWindow="1300" yWindow="0" windowWidth="25600" windowHeight="14880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AF" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="825" uniqueCount="712">
   <si>
     <t xml:space="preserve">Name </t>
   </si>
@@ -817,24 +817,12 @@
     <t>ID</t>
   </si>
   <si>
-    <t>female</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
     <t>Kountze, Texas</t>
   </si>
   <si>
-    <t>50+</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>40+</t>
-  </si>
-  <si>
     <t>Coral Gables, Florida</t>
   </si>
   <si>
@@ -2066,6 +2054,111 @@
   </si>
   <si>
     <t>987531137948604</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>UK Liverpool</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>African American</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>Delhi, India</t>
+  </si>
+  <si>
+    <t>US Tampa, Florida</t>
+  </si>
+  <si>
+    <t>Dubai, United Arab Emirates</t>
+  </si>
+  <si>
+    <t>Tirana, Albania</t>
+  </si>
+  <si>
+    <t>Nizhni Novgorod, Russia</t>
+  </si>
+  <si>
+    <t>Mar del Plata, Argentina</t>
+  </si>
+  <si>
+    <t>Latin</t>
+  </si>
+  <si>
+    <t>Newtown, Bucks County, Pennsylvania</t>
+  </si>
+  <si>
+    <t>Colorado Springs, Colorado</t>
+  </si>
+  <si>
+    <t>Prokopyevsk</t>
+  </si>
+  <si>
+    <t>Parma, Italy</t>
+  </si>
+  <si>
+    <t>Glasgow, United Kingdom</t>
+  </si>
+  <si>
+    <t>Lafayette, Louisiana</t>
+  </si>
+  <si>
+    <t>Apex, North Carolina</t>
+  </si>
+  <si>
+    <t>New York, New York</t>
+  </si>
+  <si>
+    <t>Los Angeles, California</t>
+  </si>
+  <si>
+    <t>Island Park, Idaho</t>
+  </si>
+  <si>
+    <t>Napa, CA</t>
+  </si>
+  <si>
+    <t>Wallington, New Jersey</t>
+  </si>
+  <si>
+    <t>Elmhurst, Illinois</t>
+  </si>
+  <si>
+    <t>Stockton, CA</t>
+  </si>
+  <si>
+    <t>San Antonio, Texas</t>
+  </si>
+  <si>
+    <t>Cleveland, Ohio</t>
+  </si>
+  <si>
+    <t>Pekin, IL</t>
+  </si>
+  <si>
+    <t>rvine, California</t>
+  </si>
+  <si>
+    <t>Ascian American</t>
+  </si>
+  <si>
+    <t>Lafayette, Indiana</t>
+  </si>
+  <si>
+    <t>Annapolis, MD</t>
   </si>
 </sst>
 </file>
@@ -2656,7 +2749,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -2705,6 +2798,85 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2795,7 +2967,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="170">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -2869,6 +3041,85 @@
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
     <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -3207,7 +3458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3217,8 +3468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H572"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="C126" sqref="C126"/>
+    <sheetView topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="F139" sqref="F139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -3263,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="34" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
@@ -3276,7 +3527,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -3289,7 +3540,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="D4" s="18"/>
       <c r="E4" s="18"/>
@@ -3302,7 +3553,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D5" s="18"/>
       <c r="E5" s="18"/>
@@ -3315,7 +3566,7 @@
         <v>5</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D6" s="18"/>
       <c r="E6" s="18"/>
@@ -3328,7 +3579,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -3341,7 +3592,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -3354,7 +3605,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -3367,7 +3618,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -3380,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -3393,7 +3644,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -3406,7 +3657,7 @@
         <v>12</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -3419,7 +3670,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -3432,7 +3683,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -3445,7 +3696,7 @@
         <v>15</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -3458,7 +3709,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -3471,7 +3722,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -3484,7 +3735,7 @@
         <v>18</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D19" s="18"/>
       <c r="E19" s="18"/>
@@ -3497,7 +3748,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="34" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D20" s="18"/>
       <c r="E20" s="18"/>
@@ -3510,7 +3761,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="34" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -3523,7 +3774,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -3536,7 +3787,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -3549,7 +3800,7 @@
         <v>23</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -3562,7 +3813,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -3575,7 +3826,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -3588,7 +3839,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -3601,7 +3852,7 @@
         <v>27</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -3617,7 +3868,7 @@
         <v>28</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -3630,7 +3881,7 @@
         <v>29</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -3643,7 +3894,7 @@
         <v>30</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -3656,7 +3907,7 @@
         <v>31</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -3669,7 +3920,7 @@
         <v>32</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
@@ -3682,7 +3933,7 @@
         <v>33</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -3695,7 +3946,7 @@
         <v>34</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
@@ -3708,7 +3959,7 @@
         <v>35</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18"/>
@@ -3721,7 +3972,7 @@
         <v>36</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18"/>
@@ -3734,7 +3985,7 @@
         <v>37</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
@@ -3747,7 +3998,7 @@
         <v>38</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
@@ -3760,7 +4011,7 @@
         <v>39</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D40" s="18"/>
       <c r="E40" s="18"/>
@@ -3773,7 +4024,7 @@
         <v>40</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
@@ -3786,7 +4037,7 @@
         <v>41</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -3799,7 +4050,7 @@
         <v>42</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
@@ -3812,7 +4063,7 @@
         <v>43</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D44" s="18"/>
       <c r="E44" s="18"/>
@@ -3825,7 +4076,7 @@
         <v>44</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D45" s="18"/>
       <c r="E45" s="18"/>
@@ -3838,7 +4089,7 @@
         <v>45</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
@@ -3851,7 +4102,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
@@ -3864,7 +4115,7 @@
         <v>47</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
@@ -3877,7 +4128,7 @@
         <v>48</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
@@ -3890,7 +4141,7 @@
         <v>49</v>
       </c>
       <c r="C50" s="34" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
@@ -3903,7 +4154,7 @@
         <v>50</v>
       </c>
       <c r="C51" s="34" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
@@ -3916,7 +4167,7 @@
         <v>51</v>
       </c>
       <c r="C52" s="34" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D52" s="18"/>
       <c r="E52" s="18"/>
@@ -3929,7 +4180,7 @@
         <v>52</v>
       </c>
       <c r="C53" s="34" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -3942,7 +4193,7 @@
         <v>53</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="D54" s="18"/>
       <c r="E54" s="18"/>
@@ -3955,7 +4206,7 @@
         <v>54</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D55" s="18"/>
       <c r="E55" s="18"/>
@@ -3968,7 +4219,7 @@
         <v>55</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18"/>
@@ -3984,7 +4235,7 @@
         <v>56</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18"/>
@@ -3997,7 +4248,7 @@
         <v>57</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -4010,7 +4261,7 @@
         <v>58</v>
       </c>
       <c r="C59" s="34" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
@@ -4023,7 +4274,7 @@
         <v>59</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D60" s="18"/>
       <c r="E60" s="18"/>
@@ -4036,7 +4287,7 @@
         <v>60</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D61" s="18"/>
       <c r="E61" s="18"/>
@@ -4049,7 +4300,7 @@
         <v>61</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -4062,7 +4313,7 @@
         <v>62</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -4075,7 +4326,7 @@
         <v>63</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
@@ -4088,7 +4339,7 @@
         <v>64</v>
       </c>
       <c r="C65" s="34" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
@@ -4101,7 +4352,7 @@
         <v>65</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -4114,7 +4365,7 @@
         <v>66</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D67" s="18"/>
       <c r="E67" s="18"/>
@@ -4127,7 +4378,7 @@
         <v>67</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D68" s="18"/>
       <c r="E68" s="18"/>
@@ -4140,7 +4391,7 @@
         <v>68</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D69" s="18"/>
       <c r="E69" s="18"/>
@@ -4153,7 +4404,7 @@
         <v>69</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D70" s="18"/>
       <c r="E70" s="18"/>
@@ -4166,7 +4417,7 @@
         <v>70</v>
       </c>
       <c r="C71" s="34" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D71" s="18"/>
       <c r="E71" s="18"/>
@@ -4179,7 +4430,7 @@
         <v>71</v>
       </c>
       <c r="C72" s="34" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D72" s="18"/>
       <c r="E72" s="18"/>
@@ -4192,7 +4443,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="34" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D73" s="18"/>
       <c r="E73" s="18"/>
@@ -4205,7 +4456,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="34" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="D74" s="18"/>
       <c r="E74" s="18"/>
@@ -4218,7 +4469,7 @@
         <v>74</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
@@ -4231,7 +4482,7 @@
         <v>75</v>
       </c>
       <c r="C76" s="34" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D76" s="18"/>
       <c r="E76" s="18"/>
@@ -4244,7 +4495,7 @@
         <v>76</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -4257,7 +4508,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="34" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
@@ -4270,7 +4521,7 @@
         <v>78</v>
       </c>
       <c r="C79" s="34" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
@@ -4283,7 +4534,7 @@
         <v>79</v>
       </c>
       <c r="C80" s="34" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -4296,7 +4547,7 @@
         <v>80</v>
       </c>
       <c r="C81" s="34" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
@@ -4309,7 +4560,7 @@
         <v>81</v>
       </c>
       <c r="C82" s="34" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
@@ -4322,7 +4573,7 @@
         <v>82</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
@@ -4338,7 +4589,7 @@
         <v>83</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="D84" s="18"/>
       <c r="E84" s="18"/>
@@ -4351,7 +4602,7 @@
         <v>84</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D85" s="18"/>
       <c r="E85" s="18"/>
@@ -4364,7 +4615,7 @@
         <v>85</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="D86" s="18"/>
       <c r="E86" s="18"/>
@@ -4377,7 +4628,7 @@
         <v>86</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D87" s="18"/>
       <c r="E87" s="18"/>
@@ -4390,7 +4641,7 @@
         <v>87</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="D88" s="18"/>
       <c r="E88" s="18"/>
@@ -4403,7 +4654,7 @@
         <v>88</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
@@ -4416,7 +4667,7 @@
         <v>89</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
@@ -4429,7 +4680,7 @@
         <v>90</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D91" s="18"/>
       <c r="E91" s="18"/>
@@ -4442,7 +4693,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="D92" s="18"/>
       <c r="E92" s="18"/>
@@ -4455,7 +4706,7 @@
         <v>92</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D93" s="18"/>
       <c r="E93" s="18"/>
@@ -4468,7 +4719,7 @@
         <v>93</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
@@ -4481,7 +4732,7 @@
         <v>94</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D95" s="18"/>
       <c r="E95" s="18"/>
@@ -4494,7 +4745,7 @@
         <v>95</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D96" s="18"/>
       <c r="E96" s="18"/>
@@ -4507,7 +4758,7 @@
         <v>96</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D97" s="18"/>
       <c r="E97" s="18"/>
@@ -4520,7 +4771,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="34" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D98" s="18"/>
       <c r="E98" s="18"/>
@@ -4533,7 +4784,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="34" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D99" s="18"/>
       <c r="E99" s="18"/>
@@ -4546,7 +4797,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="34" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
@@ -4559,7 +4810,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="34" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D101" s="18"/>
       <c r="E101" s="18"/>
@@ -4572,7 +4823,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="34" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D102" s="18"/>
       <c r="E102" s="18"/>
@@ -4585,7 +4836,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="34" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D103" s="18"/>
       <c r="E103" s="18"/>
@@ -4598,7 +4849,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="34" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D104" s="18"/>
       <c r="E104" s="18"/>
@@ -4611,7 +4862,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="34" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D105" s="18"/>
       <c r="E105" s="18"/>
@@ -4624,7 +4875,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="34" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="D106" s="18"/>
       <c r="E106" s="18"/>
@@ -4637,7 +4888,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="34" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D107" s="18"/>
       <c r="E107" s="18"/>
@@ -4650,7 +4901,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="34" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D108" s="18"/>
       <c r="E108" s="18"/>
@@ -4663,7 +4914,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="34" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -4677,7 +4928,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="34" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D110" s="18"/>
       <c r="E110" s="18"/>
@@ -4691,7 +4942,7 @@
         <v>110</v>
       </c>
       <c r="C111" s="34" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -4707,19 +4958,19 @@
         <v>111</v>
       </c>
       <c r="C112" s="34" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D112" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E112" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="F112" s="25" t="s">
         <v>265</v>
       </c>
-      <c r="F112" s="25" t="s">
-        <v>266</v>
-      </c>
-      <c r="G112" s="18" t="s">
-        <v>267</v>
+      <c r="G112" s="18">
+        <v>50</v>
       </c>
       <c r="H112" s="13">
         <v>2010</v>
@@ -4731,13 +4982,23 @@
         <v>112</v>
       </c>
       <c r="C113" s="34" t="s">
-        <v>552</v>
-      </c>
-      <c r="D113" s="18"/>
-      <c r="E113" s="18"/>
-      <c r="F113" s="25"/>
-      <c r="G113" s="12"/>
-      <c r="H113" s="13"/>
+        <v>548</v>
+      </c>
+      <c r="D113" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E113" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F113" s="25" t="s">
+        <v>696</v>
+      </c>
+      <c r="G113" s="12">
+        <v>32</v>
+      </c>
+      <c r="H113" s="13">
+        <v>2009</v>
+      </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="1"/>
@@ -4745,13 +5006,23 @@
         <v>113</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>553</v>
-      </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="18"/>
-      <c r="F114" s="25"/>
-      <c r="G114" s="12"/>
-      <c r="H114" s="13"/>
+        <v>549</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E114" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F114" s="25" t="s">
+        <v>697</v>
+      </c>
+      <c r="G114" s="12">
+        <v>45</v>
+      </c>
+      <c r="H114" s="13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="1"/>
@@ -4759,13 +5030,23 @@
         <v>114</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>554</v>
-      </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="25"/>
-      <c r="G115" s="12"/>
-      <c r="H115" s="13"/>
+        <v>550</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E115" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F115" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G115" s="25">
+        <v>32</v>
+      </c>
+      <c r="H115" s="13">
+        <v>2013</v>
+      </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="1"/>
@@ -4773,13 +5054,23 @@
         <v>115</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>555</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="18"/>
-      <c r="F116" s="25"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="13"/>
+        <v>551</v>
+      </c>
+      <c r="D116" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E116" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F116" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="G116" s="25">
+        <v>47</v>
+      </c>
+      <c r="H116" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="1"/>
@@ -4787,13 +5078,23 @@
         <v>116</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>556</v>
-      </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="25"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="13"/>
+        <v>552</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="G117" s="25">
+        <v>52</v>
+      </c>
+      <c r="H117" s="13">
+        <v>2009</v>
+      </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="1"/>
@@ -4801,13 +5102,23 @@
         <v>117</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>557</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="18"/>
-      <c r="F118" s="25"/>
-      <c r="G118" s="12"/>
-      <c r="H118" s="13"/>
+        <v>553</v>
+      </c>
+      <c r="D118" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E118" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G118" s="25">
+        <v>60</v>
+      </c>
+      <c r="H118" s="13">
+        <v>2014</v>
+      </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="1"/>
@@ -4815,21 +5126,23 @@
         <v>118</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>268</v>
+        <v>681</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F119" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="G119" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="H119" s="13"/>
+        <v>266</v>
+      </c>
+      <c r="G119" s="18">
+        <v>40</v>
+      </c>
+      <c r="H119" s="13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="1"/>
@@ -4837,13 +5150,23 @@
         <v>119</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>559</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="18"/>
-      <c r="F120" s="25"/>
-      <c r="G120" s="12"/>
-      <c r="H120" s="13"/>
+        <v>555</v>
+      </c>
+      <c r="D120" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="F120" s="25" t="s">
+        <v>700</v>
+      </c>
+      <c r="G120" s="25">
+        <v>62</v>
+      </c>
+      <c r="H120" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="1"/>
@@ -4851,13 +5174,23 @@
         <v>120</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>560</v>
-      </c>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="25"/>
-      <c r="G121" s="12"/>
-      <c r="H121" s="13"/>
+        <v>556</v>
+      </c>
+      <c r="D121" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F121" s="25" t="s">
+        <v>701</v>
+      </c>
+      <c r="G121" s="25">
+        <v>64</v>
+      </c>
+      <c r="H121" s="13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="1"/>
@@ -4865,13 +5198,23 @@
         <v>121</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>561</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="18"/>
-      <c r="F122" s="25"/>
-      <c r="G122" s="12"/>
-      <c r="H122" s="13"/>
+        <v>557</v>
+      </c>
+      <c r="D122" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E122" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F122" s="25" t="s">
+        <v>702</v>
+      </c>
+      <c r="G122" s="25">
+        <v>70</v>
+      </c>
+      <c r="H122" s="13">
+        <v>2011</v>
+      </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="1"/>
@@ -4879,13 +5222,23 @@
         <v>122</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>562</v>
-      </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="25"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="13"/>
+        <v>558</v>
+      </c>
+      <c r="D123" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E123" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G123" s="25">
+        <v>68</v>
+      </c>
+      <c r="H123" s="13">
+        <v>2016</v>
+      </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="1"/>
@@ -4893,13 +5246,23 @@
         <v>123</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>563</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="18"/>
-      <c r="F124" s="25"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="13"/>
+        <v>559</v>
+      </c>
+      <c r="D124" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E124" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F124" s="25" t="s">
+        <v>703</v>
+      </c>
+      <c r="G124" s="25">
+        <v>67</v>
+      </c>
+      <c r="H124" s="13">
+        <v>2009</v>
+      </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="1"/>
@@ -4907,13 +5270,23 @@
         <v>124</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>564</v>
-      </c>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="25"/>
-      <c r="G125" s="12"/>
-      <c r="H125" s="13"/>
+        <v>560</v>
+      </c>
+      <c r="D125" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E125" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F125" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G125" s="25">
+        <v>56</v>
+      </c>
+      <c r="H125" s="13">
+        <v>2011</v>
+      </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="1"/>
@@ -4921,13 +5294,23 @@
         <v>125</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>565</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="18"/>
-      <c r="F126" s="25"/>
-      <c r="G126" s="12"/>
-      <c r="H126" s="13"/>
+        <v>561</v>
+      </c>
+      <c r="D126" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E126" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F126" s="25" t="s">
+        <v>698</v>
+      </c>
+      <c r="G126" s="25">
+        <v>63</v>
+      </c>
+      <c r="H126" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="1"/>
@@ -4935,13 +5318,23 @@
         <v>126</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>566</v>
-      </c>
-      <c r="D127" s="18"/>
-      <c r="E127" s="18"/>
-      <c r="F127" s="25"/>
-      <c r="G127" s="12"/>
-      <c r="H127" s="13"/>
+        <v>562</v>
+      </c>
+      <c r="D127" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E127" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>704</v>
+      </c>
+      <c r="G127" s="25">
+        <v>58</v>
+      </c>
+      <c r="H127" s="13">
+        <v>2008</v>
+      </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="1"/>
@@ -4949,13 +5342,23 @@
         <v>127</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>567</v>
-      </c>
-      <c r="D128" s="18"/>
-      <c r="E128" s="18"/>
-      <c r="F128" s="25"/>
-      <c r="G128" s="12"/>
-      <c r="H128" s="13"/>
+        <v>563</v>
+      </c>
+      <c r="D128" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>705</v>
+      </c>
+      <c r="G128" s="25">
+        <v>32</v>
+      </c>
+      <c r="H128" s="13">
+        <v>2011</v>
+      </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="1"/>
@@ -4963,13 +5366,23 @@
         <v>128</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>568</v>
-      </c>
-      <c r="D129" s="18"/>
-      <c r="E129" s="18"/>
-      <c r="F129" s="25"/>
-      <c r="G129" s="12"/>
-      <c r="H129" s="13"/>
+        <v>564</v>
+      </c>
+      <c r="D129" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E129" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F129" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G129" s="25">
+        <v>47</v>
+      </c>
+      <c r="H129" s="13">
+        <v>2009</v>
+      </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="1"/>
@@ -4977,13 +5390,23 @@
         <v>129</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>569</v>
-      </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="18"/>
-      <c r="F130" s="25"/>
-      <c r="G130" s="12"/>
-      <c r="H130" s="13"/>
+        <v>565</v>
+      </c>
+      <c r="D130" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E130" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F130" s="25" t="s">
+        <v>706</v>
+      </c>
+      <c r="G130" s="25">
+        <v>53</v>
+      </c>
+      <c r="H130" s="13">
+        <v>2011</v>
+      </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="1"/>
@@ -4991,13 +5414,23 @@
         <v>130</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>570</v>
-      </c>
-      <c r="D131" s="18"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="25"/>
-      <c r="G131" s="12"/>
-      <c r="H131" s="13"/>
+        <v>566</v>
+      </c>
+      <c r="D131" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E131" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G131" s="25">
+        <v>48</v>
+      </c>
+      <c r="H131" s="13">
+        <v>2008</v>
+      </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="1"/>
@@ -5005,13 +5438,23 @@
         <v>131</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>571</v>
-      </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="25"/>
-      <c r="G132" s="12"/>
-      <c r="H132" s="13"/>
+        <v>567</v>
+      </c>
+      <c r="D132" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E132" s="18" t="s">
+        <v>682</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G132" s="25">
+        <v>54</v>
+      </c>
+      <c r="H132" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="1"/>
@@ -5019,13 +5462,23 @@
         <v>132</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>572</v>
-      </c>
-      <c r="D133" s="18"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="25"/>
-      <c r="G133" s="12"/>
-      <c r="H133" s="13"/>
+        <v>568</v>
+      </c>
+      <c r="D133" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E133" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F133" s="25" t="s">
+        <v>707</v>
+      </c>
+      <c r="G133" s="25">
+        <v>40</v>
+      </c>
+      <c r="H133" s="13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="1"/>
@@ -5033,13 +5486,23 @@
         <v>133</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>573</v>
-      </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="18"/>
-      <c r="F134" s="25"/>
-      <c r="G134" s="12"/>
-      <c r="H134" s="13"/>
+        <v>569</v>
+      </c>
+      <c r="D134" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E134" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" s="25" t="s">
+        <v>708</v>
+      </c>
+      <c r="G134" s="25">
+        <v>75</v>
+      </c>
+      <c r="H134" s="13">
+        <v>2011</v>
+      </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="1"/>
@@ -5047,13 +5510,23 @@
         <v>134</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>574</v>
-      </c>
-      <c r="D135" s="18"/>
-      <c r="E135" s="18"/>
-      <c r="F135" s="25"/>
-      <c r="G135" s="12"/>
-      <c r="H135" s="13"/>
+        <v>570</v>
+      </c>
+      <c r="D135" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E135" s="18" t="s">
+        <v>709</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>699</v>
+      </c>
+      <c r="G135" s="25">
+        <v>52</v>
+      </c>
+      <c r="H135" s="13">
+        <v>2009</v>
+      </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="1"/>
@@ -5061,13 +5534,23 @@
         <v>135</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>575</v>
-      </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="18"/>
-      <c r="F136" s="25"/>
-      <c r="G136" s="12"/>
-      <c r="H136" s="13"/>
+        <v>571</v>
+      </c>
+      <c r="D136" s="18" t="s">
+        <v>677</v>
+      </c>
+      <c r="E136" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F136" s="25" t="s">
+        <v>710</v>
+      </c>
+      <c r="G136" s="25">
+        <v>55</v>
+      </c>
+      <c r="H136" s="13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="1"/>
@@ -5075,13 +5558,23 @@
         <v>136</v>
       </c>
       <c r="C137" s="34" t="s">
-        <v>576</v>
-      </c>
-      <c r="D137" s="18"/>
-      <c r="E137" s="18"/>
-      <c r="F137" s="25"/>
-      <c r="G137" s="12"/>
-      <c r="H137" s="13"/>
+        <v>572</v>
+      </c>
+      <c r="D137" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E137" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>711</v>
+      </c>
+      <c r="G137" s="25">
+        <v>48</v>
+      </c>
+      <c r="H137" s="13">
+        <v>2008</v>
+      </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="1"/>
@@ -5089,13 +5582,23 @@
         <v>137</v>
       </c>
       <c r="C138" s="34" t="s">
-        <v>577</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="18"/>
-      <c r="F138" s="25"/>
-      <c r="G138" s="12"/>
-      <c r="H138" s="13"/>
+        <v>573</v>
+      </c>
+      <c r="D138" s="18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E138" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="G138" s="25">
+        <v>46</v>
+      </c>
+      <c r="H138" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="20" t="s">
@@ -5105,7 +5608,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="34" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D139" s="18"/>
       <c r="E139" s="18"/>
@@ -5119,7 +5622,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="34" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D140" s="18"/>
       <c r="E140" s="18"/>
@@ -5133,7 +5636,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="34" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
@@ -5147,7 +5650,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="34" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D142" s="18"/>
       <c r="E142" s="18"/>
@@ -5161,7 +5664,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="34" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D143" s="18"/>
       <c r="E143" s="18"/>
@@ -5175,7 +5678,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="34" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D144" s="18"/>
       <c r="E144" s="18"/>
@@ -5189,7 +5692,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="34" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D145" s="18"/>
       <c r="E145" s="18"/>
@@ -5203,7 +5706,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="34" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D146" s="18"/>
       <c r="E146" s="18"/>
@@ -5217,7 +5720,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="34" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D147" s="18"/>
       <c r="E147" s="18"/>
@@ -5231,7 +5734,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="34" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D148" s="18"/>
       <c r="E148" s="18"/>
@@ -5245,7 +5748,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="34" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D149" s="18"/>
       <c r="E149" s="18"/>
@@ -5259,7 +5762,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="34" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D150" s="18"/>
       <c r="E150" s="18"/>
@@ -5273,7 +5776,7 @@
         <v>150</v>
       </c>
       <c r="C151" s="34" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D151" s="18"/>
       <c r="E151" s="18"/>
@@ -5287,7 +5790,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="34" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
@@ -5301,7 +5804,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="34" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
@@ -5315,7 +5818,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="34" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
@@ -5329,7 +5832,7 @@
         <v>154</v>
       </c>
       <c r="C155" s="34" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
@@ -5343,7 +5846,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D156" s="18"/>
       <c r="E156" s="18"/>
@@ -5357,7 +5860,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
@@ -5371,7 +5874,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="34" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D158" s="18"/>
       <c r="E158" s="18"/>
@@ -5385,7 +5888,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D159" s="18"/>
       <c r="E159" s="18"/>
@@ -5399,7 +5902,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="34" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D160" s="18"/>
       <c r="E160" s="18"/>
@@ -5413,7 +5916,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="34" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D161" s="18"/>
       <c r="E161" s="18"/>
@@ -5427,7 +5930,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="34" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D162" s="18"/>
       <c r="E162" s="18"/>
@@ -5441,7 +5944,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="34" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D163" s="18"/>
       <c r="E163" s="18"/>
@@ -5455,7 +5958,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="34" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D164" s="18"/>
       <c r="E164" s="18"/>
@@ -5469,7 +5972,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="34" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D165" s="18"/>
       <c r="E165" s="18"/>
@@ -5483,7 +5986,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="34" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D166" s="18"/>
       <c r="E166" s="18"/>
@@ -5499,7 +6002,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="34" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D167" s="18"/>
       <c r="E167" s="18"/>
@@ -5513,7 +6016,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="34" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D168" s="18"/>
       <c r="E168" s="18"/>
@@ -5527,7 +6030,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="34" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D169" s="18"/>
       <c r="E169" s="18"/>
@@ -5541,7 +6044,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="34" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D170" s="18"/>
       <c r="E170" s="18"/>
@@ -5555,7 +6058,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="34" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D171" s="18"/>
       <c r="E171" s="18"/>
@@ -5569,7 +6072,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="34" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D172" s="18"/>
       <c r="E172" s="18"/>
@@ -5583,7 +6086,7 @@
         <v>172</v>
       </c>
       <c r="C173" s="34" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D173" s="18"/>
       <c r="E173" s="18"/>
@@ -5597,7 +6100,7 @@
         <v>173</v>
       </c>
       <c r="C174" s="34" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D174" s="18"/>
       <c r="E174" s="18"/>
@@ -5611,7 +6114,7 @@
         <v>174</v>
       </c>
       <c r="C175" s="34" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D175" s="18"/>
       <c r="E175" s="18"/>
@@ -5625,7 +6128,7 @@
         <v>175</v>
       </c>
       <c r="C176" s="34" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D176" s="18"/>
       <c r="E176" s="18"/>
@@ -5639,7 +6142,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="34" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D177" s="18"/>
       <c r="E177" s="18"/>
@@ -5653,7 +6156,7 @@
         <v>177</v>
       </c>
       <c r="C178" s="34" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D178" s="18"/>
       <c r="E178" s="18"/>
@@ -5667,7 +6170,7 @@
         <v>178</v>
       </c>
       <c r="C179" s="34" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D179" s="18"/>
       <c r="E179" s="18"/>
@@ -5681,7 +6184,7 @@
         <v>179</v>
       </c>
       <c r="C180" s="34" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D180" s="18"/>
       <c r="E180" s="18"/>
@@ -5695,7 +6198,7 @@
         <v>180</v>
       </c>
       <c r="C181" s="34" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D181" s="18"/>
       <c r="E181" s="18"/>
@@ -5709,7 +6212,7 @@
         <v>181</v>
       </c>
       <c r="C182" s="34" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D182" s="18"/>
       <c r="E182" s="18"/>
@@ -5723,7 +6226,7 @@
         <v>182</v>
       </c>
       <c r="C183" s="34" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D183" s="18"/>
       <c r="E183" s="18"/>
@@ -5737,7 +6240,7 @@
         <v>183</v>
       </c>
       <c r="C184" s="34" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D184" s="18"/>
       <c r="E184" s="18"/>
@@ -5751,7 +6254,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="34" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D185" s="18"/>
       <c r="E185" s="18"/>
@@ -5765,7 +6268,7 @@
         <v>185</v>
       </c>
       <c r="C186" s="34" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D186" s="18"/>
       <c r="E186" s="18"/>
@@ -5779,7 +6282,7 @@
         <v>186</v>
       </c>
       <c r="C187" s="34" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D187" s="18"/>
       <c r="E187" s="18"/>
@@ -5793,7 +6296,7 @@
         <v>187</v>
       </c>
       <c r="C188" s="34" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D188" s="18"/>
       <c r="E188" s="18"/>
@@ -5807,7 +6310,7 @@
         <v>188</v>
       </c>
       <c r="C189" s="34" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D189" s="18"/>
       <c r="E189" s="18"/>
@@ -5821,7 +6324,7 @@
         <v>189</v>
       </c>
       <c r="C190" s="34" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D190" s="18"/>
       <c r="E190" s="18"/>
@@ -5835,7 +6338,7 @@
         <v>190</v>
       </c>
       <c r="C191" s="34" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D191" s="18"/>
       <c r="E191" s="18"/>
@@ -5849,7 +6352,7 @@
         <v>191</v>
       </c>
       <c r="C192" s="34" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D192" s="18"/>
       <c r="E192" s="18"/>
@@ -5863,7 +6366,7 @@
         <v>192</v>
       </c>
       <c r="C193" s="34" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D193" s="18"/>
       <c r="E193" s="18"/>
@@ -5879,7 +6382,7 @@
         <v>193</v>
       </c>
       <c r="C194" s="34" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D194" s="18"/>
       <c r="E194" s="18"/>
@@ -5893,7 +6396,7 @@
         <v>194</v>
       </c>
       <c r="C195" s="34" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D195" s="18"/>
       <c r="E195" s="18"/>
@@ -5907,7 +6410,7 @@
         <v>195</v>
       </c>
       <c r="C196" s="34" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D196" s="18"/>
       <c r="E196" s="18"/>
@@ -5921,7 +6424,7 @@
         <v>196</v>
       </c>
       <c r="C197" s="34" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D197" s="18"/>
       <c r="E197" s="18"/>
@@ -5935,7 +6438,7 @@
         <v>197</v>
       </c>
       <c r="C198" s="34" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D198" s="18"/>
       <c r="E198" s="18"/>
@@ -5949,7 +6452,7 @@
         <v>198</v>
       </c>
       <c r="C199" s="34" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D199" s="18"/>
       <c r="E199" s="18"/>
@@ -5963,7 +6466,7 @@
         <v>199</v>
       </c>
       <c r="C200" s="34" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D200" s="18"/>
       <c r="E200" s="18"/>
@@ -5977,7 +6480,7 @@
         <v>200</v>
       </c>
       <c r="C201" s="34" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D201" s="18"/>
       <c r="E201" s="18"/>
@@ -5991,7 +6494,7 @@
         <v>201</v>
       </c>
       <c r="C202" s="34" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D202" s="18"/>
       <c r="E202" s="18"/>
@@ -6005,7 +6508,7 @@
         <v>202</v>
       </c>
       <c r="C203" s="34" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D203" s="18"/>
       <c r="E203" s="18"/>
@@ -6019,7 +6522,7 @@
         <v>203</v>
       </c>
       <c r="C204" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D204" s="18"/>
       <c r="E204" s="18"/>
@@ -6033,7 +6536,7 @@
         <v>204</v>
       </c>
       <c r="C205" s="34" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D205" s="18"/>
       <c r="E205" s="18"/>
@@ -6047,7 +6550,7 @@
         <v>205</v>
       </c>
       <c r="C206" s="34" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D206" s="18"/>
       <c r="E206" s="18"/>
@@ -6061,7 +6564,7 @@
         <v>206</v>
       </c>
       <c r="C207" s="34" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D207" s="18"/>
       <c r="E207" s="18"/>
@@ -6075,7 +6578,7 @@
         <v>207</v>
       </c>
       <c r="C208" s="34" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D208" s="18"/>
       <c r="E208" s="18"/>
@@ -6089,7 +6592,7 @@
         <v>208</v>
       </c>
       <c r="C209" s="34" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D209" s="18"/>
       <c r="E209" s="18"/>
@@ -6103,7 +6606,7 @@
         <v>209</v>
       </c>
       <c r="C210" s="34" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D210" s="18"/>
       <c r="E210" s="18"/>
@@ -6117,7 +6620,7 @@
         <v>210</v>
       </c>
       <c r="C211" s="34" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D211" s="18"/>
       <c r="E211" s="18"/>
@@ -6131,7 +6634,7 @@
         <v>211</v>
       </c>
       <c r="C212" s="34" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D212" s="18"/>
       <c r="E212" s="18"/>
@@ -6145,7 +6648,7 @@
         <v>212</v>
       </c>
       <c r="C213" s="34" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D213" s="18"/>
       <c r="E213" s="18"/>
@@ -6159,7 +6662,7 @@
         <v>213</v>
       </c>
       <c r="C214" s="34" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D214" s="18"/>
       <c r="E214" s="18"/>
@@ -6173,7 +6676,7 @@
         <v>214</v>
       </c>
       <c r="C215" s="34" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D215" s="18"/>
       <c r="E215" s="18"/>
@@ -6187,7 +6690,7 @@
         <v>215</v>
       </c>
       <c r="C216" s="34" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="D216" s="18"/>
       <c r="E216" s="18"/>
@@ -6201,7 +6704,7 @@
         <v>216</v>
       </c>
       <c r="C217" s="34" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D217" s="18"/>
       <c r="E217" s="18"/>
@@ -6215,7 +6718,7 @@
         <v>217</v>
       </c>
       <c r="C218" s="34" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="D218" s="18"/>
       <c r="E218" s="18"/>
@@ -6229,7 +6732,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="34" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D219" s="18"/>
       <c r="E219" s="18"/>
@@ -6243,7 +6746,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="34" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="D220" s="18"/>
       <c r="E220" s="18"/>
@@ -6257,7 +6760,7 @@
         <v>220</v>
       </c>
       <c r="C221" s="34" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D221" s="18"/>
       <c r="E221" s="18"/>
@@ -6273,7 +6776,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="34" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="D222" s="18"/>
       <c r="E222" s="18"/>
@@ -6287,7 +6790,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="34" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D223" s="18"/>
       <c r="E223" s="18"/>
@@ -6301,7 +6804,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="34" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="D224" s="18"/>
       <c r="E224" s="18"/>
@@ -6315,7 +6818,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="34" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="D225" s="18"/>
       <c r="E225" s="18"/>
@@ -6329,7 +6832,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="34" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D226" s="18"/>
       <c r="E226" s="18"/>
@@ -6343,7 +6846,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="34" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="D227" s="18"/>
       <c r="E227" s="18"/>
@@ -6357,7 +6860,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="34" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="D228" s="18"/>
       <c r="E228" s="18"/>
@@ -6371,7 +6874,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="34" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="D229" s="18"/>
       <c r="E229" s="18"/>
@@ -6385,7 +6888,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="34" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="D230" s="18"/>
       <c r="E230" s="18"/>
@@ -6399,7 +6902,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="34" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="D231" s="18"/>
       <c r="E231" s="18"/>
@@ -6413,7 +6916,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="34" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="D232" s="18"/>
       <c r="E232" s="18"/>
@@ -6427,7 +6930,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="34" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D233" s="18"/>
       <c r="E233" s="18"/>
@@ -6441,7 +6944,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="34" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D234" s="18"/>
       <c r="E234" s="18"/>
@@ -6455,7 +6958,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="34" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D235" s="18"/>
       <c r="E235" s="18"/>
@@ -6469,7 +6972,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="34" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D236" s="18"/>
       <c r="E236" s="18"/>
@@ -6483,7 +6986,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="34" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D237" s="18"/>
       <c r="E237" s="18"/>
@@ -6497,7 +7000,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="34" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="D238" s="18"/>
       <c r="E238" s="18"/>
@@ -6511,7 +7014,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="34" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D239" s="18"/>
       <c r="E239" s="18"/>
@@ -6525,7 +7028,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="34" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="D240" s="18"/>
       <c r="E240" s="18"/>
@@ -6538,7 +7041,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="34" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D241" s="18"/>
       <c r="E241" s="18"/>
@@ -6551,7 +7054,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="34" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="D242" s="18"/>
       <c r="E242" s="18"/>
@@ -8260,8 +8763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G310"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B174" sqref="B174"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F90" sqref="F90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -8297,7 +8800,7 @@
         <v>249</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="9"/>
@@ -8307,7 +8810,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="30" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="12"/>
@@ -8317,7 +8820,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="B4" s="30" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -8327,7 +8830,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="B5" s="30" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -8337,7 +8840,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="B6" s="30" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -8347,7 +8850,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="B7" s="30" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="12"/>
@@ -8357,7 +8860,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="B8" s="30" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="12"/>
@@ -8367,7 +8870,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="B9" s="30" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
@@ -8377,7 +8880,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="B10" s="30" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
@@ -8387,7 +8890,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="B11" s="30" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="12"/>
@@ -8397,7 +8900,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="B12" s="30" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
@@ -8407,7 +8910,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="B13" s="30" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
@@ -8417,7 +8920,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="B14" s="30" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="12"/>
@@ -8427,7 +8930,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="B15" s="30" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
@@ -8437,7 +8940,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="B16" s="30" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="12"/>
@@ -8447,7 +8950,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="30" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="12"/>
@@ -8457,7 +8960,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="30" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12"/>
@@ -8467,7 +8970,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
@@ -8477,7 +8980,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" s="12"/>
@@ -8490,7 +8993,7 @@
         <v>250</v>
       </c>
       <c r="B21" s="31" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
@@ -8500,7 +9003,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="31" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="12"/>
@@ -8510,7 +9013,7 @@
     </row>
     <row r="23" spans="1:7">
       <c r="B23" s="31" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="12"/>
@@ -8520,7 +9023,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="B24" s="31" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
@@ -8530,7 +9033,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="B25" s="31" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" s="12"/>
@@ -8540,7 +9043,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="B26" s="31" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="12"/>
@@ -8550,7 +9053,7 @@
     </row>
     <row r="27" spans="1:7">
       <c r="B27" s="31" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="12"/>
@@ -8560,7 +9063,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="B28" s="31" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" s="12"/>
@@ -8570,7 +9073,7 @@
     </row>
     <row r="29" spans="1:7">
       <c r="B29" s="31" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="12"/>
@@ -8580,7 +9083,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="B30" s="31" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
@@ -8590,7 +9093,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="B31" s="31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="12"/>
@@ -8600,7 +9103,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="B32" s="31" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="12"/>
@@ -8610,7 +9113,7 @@
     </row>
     <row r="33" spans="1:7">
       <c r="B33" s="31" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="12"/>
@@ -8620,7 +9123,7 @@
     </row>
     <row r="34" spans="1:7">
       <c r="B34" s="31" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="12"/>
@@ -8630,7 +9133,7 @@
     </row>
     <row r="35" spans="1:7">
       <c r="B35" s="31" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="12"/>
@@ -8640,7 +9143,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="B36" s="31" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="12"/>
@@ -8650,7 +9153,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="B37" s="31" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="12"/>
@@ -8660,7 +9163,7 @@
     </row>
     <row r="38" spans="1:7">
       <c r="B38" s="31" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
@@ -8670,7 +9173,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="B39" s="31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" s="12"/>
@@ -8683,7 +9186,7 @@
         <v>251</v>
       </c>
       <c r="B40" s="30" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C40" s="11"/>
       <c r="D40" s="12"/>
@@ -8693,7 +9196,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="B41" s="30" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C41" s="11"/>
       <c r="D41" s="12"/>
@@ -8703,7 +9206,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="B42" s="30" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="12"/>
@@ -8713,7 +9216,7 @@
     </row>
     <row r="43" spans="1:7">
       <c r="B43" s="30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="12"/>
@@ -8723,7 +9226,7 @@
     </row>
     <row r="44" spans="1:7">
       <c r="B44" s="30" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="12"/>
@@ -8733,7 +9236,7 @@
     </row>
     <row r="45" spans="1:7">
       <c r="B45" s="30" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="12"/>
@@ -8743,7 +9246,7 @@
     </row>
     <row r="46" spans="1:7">
       <c r="B46" s="30" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="C46" s="11"/>
       <c r="D46" s="12"/>
@@ -8753,7 +9256,7 @@
     </row>
     <row r="47" spans="1:7">
       <c r="B47" s="30" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="12"/>
@@ -8763,7 +9266,7 @@
     </row>
     <row r="48" spans="1:7">
       <c r="B48" s="30" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="12"/>
@@ -8773,7 +9276,7 @@
     </row>
     <row r="49" spans="1:7">
       <c r="B49" s="30" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="12"/>
@@ -8783,7 +9286,7 @@
     </row>
     <row r="50" spans="1:7">
       <c r="B50" s="30" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="12"/>
@@ -8793,7 +9296,7 @@
     </row>
     <row r="51" spans="1:7">
       <c r="B51" s="30" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="12"/>
@@ -8803,7 +9306,7 @@
     </row>
     <row r="52" spans="1:7">
       <c r="B52" s="30" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="12"/>
@@ -8813,7 +9316,7 @@
     </row>
     <row r="53" spans="1:7">
       <c r="B53" s="30" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C53" s="11"/>
       <c r="D53" s="12"/>
@@ -8823,7 +9326,7 @@
     </row>
     <row r="54" spans="1:7">
       <c r="B54" s="30" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="12"/>
@@ -8833,7 +9336,7 @@
     </row>
     <row r="55" spans="1:7">
       <c r="B55" s="30" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="12"/>
@@ -8843,7 +9346,7 @@
     </row>
     <row r="56" spans="1:7">
       <c r="B56" s="30" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="12"/>
@@ -8853,7 +9356,7 @@
     </row>
     <row r="57" spans="1:7">
       <c r="B57" s="30" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="12"/>
@@ -8866,7 +9369,7 @@
         <v>252</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="12"/>
@@ -8876,7 +9379,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="B59" s="31" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="12"/>
@@ -8886,7 +9389,7 @@
     </row>
     <row r="60" spans="1:7">
       <c r="B60" s="31" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="12"/>
@@ -8896,7 +9399,7 @@
     </row>
     <row r="61" spans="1:7">
       <c r="B61" s="31" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="12"/>
@@ -8906,7 +9409,7 @@
     </row>
     <row r="62" spans="1:7">
       <c r="B62" s="31" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="12"/>
@@ -8916,7 +9419,7 @@
     </row>
     <row r="63" spans="1:7">
       <c r="B63" s="31" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="12"/>
@@ -8926,7 +9429,7 @@
     </row>
     <row r="64" spans="1:7">
       <c r="B64" s="31" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="12"/>
@@ -8936,7 +9439,7 @@
     </row>
     <row r="65" spans="1:7">
       <c r="B65" s="31" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="12"/>
@@ -8946,7 +9449,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="B66" s="31" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="12"/>
@@ -8956,7 +9459,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="B67" s="31" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="12"/>
@@ -8966,7 +9469,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="B68" s="31" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="12"/>
@@ -8976,7 +9479,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="B69" s="31" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="12"/>
@@ -8986,7 +9489,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="B70" s="31" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="12"/>
@@ -8996,7 +9499,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="B71" s="31" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="12"/>
@@ -9006,7 +9509,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="B72" s="31" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="12"/>
@@ -9016,7 +9519,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="B73" s="31" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="12"/>
@@ -9026,7 +9529,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="B74" s="31" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="12"/>
@@ -9036,7 +9539,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="B75" s="31" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="12"/>
@@ -9046,7 +9549,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="B76" s="31" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="12"/>
@@ -9059,190 +9562,370 @@
         <v>253</v>
       </c>
       <c r="B77" s="30" t="s">
-        <v>347</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="13"/>
+        <v>343</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>678</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>679</v>
+      </c>
+      <c r="F77" s="12">
+        <v>28</v>
+      </c>
+      <c r="G77" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="78" spans="1:7">
       <c r="B78" s="30" t="s">
-        <v>348</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-      <c r="G78" s="13"/>
+        <v>344</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>682</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>685</v>
+      </c>
+      <c r="F78" s="12">
+        <v>30</v>
+      </c>
+      <c r="G78" s="13">
+        <v>2011</v>
+      </c>
     </row>
     <row r="79" spans="1:7">
       <c r="B79" s="30" t="s">
-        <v>349</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="12"/>
-      <c r="G79" s="13"/>
+        <v>345</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>683</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="F79" s="12">
+        <v>24</v>
+      </c>
+      <c r="G79" s="13">
+        <v>2007</v>
+      </c>
     </row>
     <row r="80" spans="1:7">
       <c r="B80" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="13"/>
+        <v>346</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D80" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E80" s="25" t="s">
+        <v>686</v>
+      </c>
+      <c r="F80" s="25">
+        <v>30</v>
+      </c>
+      <c r="G80" s="13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="81" spans="1:7">
       <c r="B81" s="30" t="s">
-        <v>351</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="13"/>
+        <v>347</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D81" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E81" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="F81" s="25">
+        <v>35</v>
+      </c>
+      <c r="G81" s="13">
+        <v>2013</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="B82" s="30" t="s">
-        <v>352</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="13"/>
+        <v>348</v>
+      </c>
+      <c r="C82" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="D82" s="25" t="s">
+        <v>683</v>
+      </c>
+      <c r="E82" s="25" t="s">
+        <v>684</v>
+      </c>
+      <c r="F82" s="25">
+        <v>38</v>
+      </c>
+      <c r="G82" s="13">
+        <v>2009</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="B83" s="30" t="s">
-        <v>353</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
-      <c r="G83" s="13"/>
+        <v>349</v>
+      </c>
+      <c r="C83" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="D83" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="E83" s="25" t="s">
+        <v>687</v>
+      </c>
+      <c r="F83" s="25">
+        <v>35</v>
+      </c>
+      <c r="G83" s="13">
+        <v>2010</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="B84" s="30" t="s">
-        <v>354</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="13"/>
+        <v>350</v>
+      </c>
+      <c r="C84" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="D84" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E84" s="25" t="s">
+        <v>688</v>
+      </c>
+      <c r="F84" s="25">
+        <v>28</v>
+      </c>
+      <c r="G84" s="13">
+        <v>2014</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="B85" s="30" t="s">
-        <v>355</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="13"/>
+        <v>351</v>
+      </c>
+      <c r="C85" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="D85" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="E85" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="F85" s="25">
+        <v>35</v>
+      </c>
+      <c r="G85" s="11">
+        <v>2013</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="B86" s="30" t="s">
-        <v>356</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="13"/>
+        <v>352</v>
+      </c>
+      <c r="C86" s="25" t="s">
+        <v>681</v>
+      </c>
+      <c r="D86" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="E86" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="F86" s="25">
+        <v>33</v>
+      </c>
+      <c r="G86" s="13">
+        <v>2015</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="B87" s="30" t="s">
-        <v>357</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12"/>
-      <c r="F87" s="12"/>
-      <c r="G87" s="13"/>
+        <v>353</v>
+      </c>
+      <c r="C87" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="D87" s="25" t="s">
+        <v>690</v>
+      </c>
+      <c r="E87" s="25" t="s">
+        <v>689</v>
+      </c>
+      <c r="F87" s="25">
+        <v>43</v>
+      </c>
+      <c r="G87" s="13">
+        <v>2012</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="B88" s="30" t="s">
-        <v>358</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="13"/>
+        <v>354</v>
+      </c>
+      <c r="C88" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="D88" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E88" s="25" t="s">
+        <v>691</v>
+      </c>
+      <c r="F88" s="25">
+        <v>46</v>
+      </c>
+      <c r="G88" s="13">
+        <v>2016</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="B89" s="30" t="s">
-        <v>359</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="13"/>
+        <v>355</v>
+      </c>
+      <c r="C89" s="25" t="s">
+        <v>677</v>
+      </c>
+      <c r="D89" s="25" t="s">
+        <v>682</v>
+      </c>
+      <c r="E89" s="25" t="s">
+        <v>692</v>
+      </c>
+      <c r="F89" s="25">
+        <v>26</v>
+      </c>
+      <c r="G89" s="13">
+        <v>2015</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="B90" s="30" t="s">
-        <v>360</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="13"/>
+        <v>356</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D90" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E90" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="F90" s="25">
+        <v>32</v>
+      </c>
+      <c r="G90" s="13">
+        <v>2009</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="B91" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="13"/>
+        <v>357</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="D91" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>693</v>
+      </c>
+      <c r="F91" s="25">
+        <v>45</v>
+      </c>
+      <c r="G91" s="13">
+        <v>2014</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="B92" s="30" t="s">
-        <v>362</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="13"/>
+        <v>358</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D92" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="F92" s="25">
+        <v>33</v>
+      </c>
+      <c r="G92" s="13">
+        <v>2014</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="B93" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="13"/>
+        <v>359</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="D93" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E93" s="25" t="s">
+        <v>680</v>
+      </c>
+      <c r="F93" s="25">
+        <v>40</v>
+      </c>
+      <c r="G93" s="13">
+        <v>2013</v>
+      </c>
     </row>
     <row r="94" spans="1:7">
       <c r="B94" s="30" t="s">
-        <v>364</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="13"/>
+        <v>360</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>681</v>
+      </c>
+      <c r="D94" s="25" t="s">
+        <v>678</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="F94" s="25">
+        <v>52</v>
+      </c>
+      <c r="G94" s="13">
+        <v>2015</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="7" t="s">
         <v>254</v>
       </c>
       <c r="B95" s="31" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="12"/>
@@ -9252,7 +9935,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="B96" s="31" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="12"/>
@@ -9262,7 +9945,7 @@
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="31" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="12"/>
@@ -9272,7 +9955,7 @@
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="31" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="12"/>
@@ -9282,7 +9965,7 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="31" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="12"/>
@@ -9292,7 +9975,7 @@
     </row>
     <row r="100" spans="2:7">
       <c r="B100" s="31" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="12"/>
@@ -9302,7 +9985,7 @@
     </row>
     <row r="101" spans="2:7">
       <c r="B101" s="31" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="12"/>
@@ -9312,7 +9995,7 @@
     </row>
     <row r="102" spans="2:7">
       <c r="B102" s="31" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C102" s="11"/>
       <c r="D102" s="12"/>
@@ -9322,7 +10005,7 @@
     </row>
     <row r="103" spans="2:7">
       <c r="B103" s="31" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C103" s="11"/>
       <c r="D103" s="12"/>
@@ -9332,7 +10015,7 @@
     </row>
     <row r="104" spans="2:7">
       <c r="B104" s="31" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="12"/>
@@ -9342,7 +10025,7 @@
     </row>
     <row r="105" spans="2:7">
       <c r="B105" s="31" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="12"/>
@@ -9352,7 +10035,7 @@
     </row>
     <row r="106" spans="2:7">
       <c r="B106" s="31" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C106" s="11"/>
       <c r="D106" s="12"/>
@@ -9362,7 +10045,7 @@
     </row>
     <row r="107" spans="2:7">
       <c r="B107" s="31" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="C107" s="11"/>
       <c r="D107" s="12"/>
@@ -9372,7 +10055,7 @@
     </row>
     <row r="108" spans="2:7">
       <c r="B108" s="31" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C108" s="11"/>
       <c r="D108" s="12"/>
@@ -9382,7 +10065,7 @@
     </row>
     <row r="109" spans="2:7">
       <c r="B109" s="31" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C109" s="11"/>
       <c r="D109" s="12"/>
@@ -9392,7 +10075,7 @@
     </row>
     <row r="110" spans="2:7">
       <c r="B110" s="31" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C110" s="11"/>
       <c r="D110" s="12"/>
@@ -9402,7 +10085,7 @@
     </row>
     <row r="111" spans="2:7">
       <c r="B111" s="31" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="12"/>
@@ -9412,7 +10095,7 @@
     </row>
     <row r="112" spans="2:7">
       <c r="B112" s="31" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C112" s="11"/>
       <c r="D112" s="12"/>
@@ -9422,7 +10105,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="B113" s="31" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C113" s="11"/>
       <c r="D113" s="12"/>
@@ -9435,7 +10118,7 @@
         <v>255</v>
       </c>
       <c r="B114" s="30" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C114" s="11"/>
       <c r="D114" s="12"/>
@@ -9445,7 +10128,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="B115" s="30" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C115" s="11"/>
       <c r="D115" s="12"/>
@@ -9455,7 +10138,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="B116" s="30" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C116" s="11"/>
       <c r="D116" s="12"/>
@@ -9465,7 +10148,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="B117" s="30" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C117" s="11"/>
       <c r="D117" s="12"/>
@@ -9475,7 +10158,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="B118" s="30" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C118" s="11"/>
       <c r="D118" s="12"/>
@@ -9485,7 +10168,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="B119" s="30" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="12"/>
@@ -9495,7 +10178,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="B120" s="30" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="12"/>
@@ -9505,7 +10188,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="B121" s="30" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C121" s="11"/>
       <c r="D121" s="12"/>
@@ -9515,7 +10198,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="B122" s="30" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C122" s="11"/>
       <c r="D122" s="12"/>
@@ -9525,7 +10208,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="B123" s="30" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C123" s="11"/>
       <c r="D123" s="12"/>
@@ -9535,7 +10218,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="B124" s="30" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C124" s="11"/>
       <c r="D124" s="12"/>
@@ -9545,7 +10228,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="B125" s="30" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C125" s="11"/>
       <c r="D125" s="12"/>
@@ -9555,7 +10238,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="B126" s="30" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C126" s="11"/>
       <c r="D126" s="12"/>
@@ -9565,7 +10248,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="B127" s="30" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C127" s="11"/>
       <c r="D127" s="12"/>
@@ -9575,7 +10258,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="B128" s="30" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C128" s="11"/>
       <c r="D128" s="12"/>
@@ -9585,7 +10268,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="B129" s="30" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C129" s="11"/>
       <c r="D129" s="12"/>
@@ -9595,7 +10278,7 @@
     </row>
     <row r="130" spans="1:7">
       <c r="B130" s="30" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C130" s="11"/>
       <c r="D130" s="12"/>
@@ -9605,7 +10288,7 @@
     </row>
     <row r="131" spans="1:7">
       <c r="B131" s="30" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C131" s="11"/>
       <c r="D131" s="12"/>
@@ -9615,7 +10298,7 @@
     </row>
     <row r="132" spans="1:7">
       <c r="B132" s="30" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C132" s="11"/>
       <c r="D132" s="12"/>
@@ -9628,7 +10311,7 @@
         <v>256</v>
       </c>
       <c r="B133" s="31" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C133" s="11"/>
       <c r="D133" s="12"/>
@@ -9638,7 +10321,7 @@
     </row>
     <row r="134" spans="1:7">
       <c r="B134" s="31" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="C134" s="11"/>
       <c r="D134" s="12"/>
@@ -9648,7 +10331,7 @@
     </row>
     <row r="135" spans="1:7">
       <c r="B135" s="31" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C135" s="11"/>
       <c r="D135" s="12"/>
@@ -9658,7 +10341,7 @@
     </row>
     <row r="136" spans="1:7">
       <c r="B136" s="31" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C136" s="11"/>
       <c r="D136" s="12"/>
@@ -9668,7 +10351,7 @@
     </row>
     <row r="137" spans="1:7">
       <c r="B137" s="31" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="12"/>
@@ -9678,7 +10361,7 @@
     </row>
     <row r="138" spans="1:7">
       <c r="B138" s="31" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C138" s="11"/>
       <c r="D138" s="12"/>
@@ -9688,7 +10371,7 @@
     </row>
     <row r="139" spans="1:7">
       <c r="B139" s="31" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C139" s="11"/>
       <c r="D139" s="12"/>
@@ -9698,7 +10381,7 @@
     </row>
     <row r="140" spans="1:7">
       <c r="B140" s="31" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C140" s="11"/>
       <c r="D140" s="12"/>
@@ -9708,7 +10391,7 @@
     </row>
     <row r="141" spans="1:7">
       <c r="B141" s="31" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C141" s="11"/>
       <c r="D141" s="12"/>
@@ -9718,7 +10401,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="B142" s="31" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C142" s="11"/>
       <c r="D142" s="12"/>
@@ -9728,7 +10411,7 @@
     </row>
     <row r="143" spans="1:7">
       <c r="B143" s="31" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C143" s="11"/>
       <c r="D143" s="12"/>
@@ -9738,7 +10421,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="B144" s="31" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C144" s="11"/>
       <c r="D144" s="12"/>
@@ -9748,7 +10431,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="B145" s="31" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C145" s="11"/>
       <c r="D145" s="12"/>
@@ -9758,7 +10441,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="B146" s="31" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C146" s="11"/>
       <c r="D146" s="12"/>
@@ -9768,7 +10451,7 @@
     </row>
     <row r="147" spans="1:7">
       <c r="B147" s="31" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="C147" s="11"/>
       <c r="D147" s="12"/>
@@ -9778,7 +10461,7 @@
     </row>
     <row r="148" spans="1:7">
       <c r="B148" s="31" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C148" s="11"/>
       <c r="D148" s="12"/>
@@ -9788,7 +10471,7 @@
     </row>
     <row r="149" spans="1:7">
       <c r="B149" s="31" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="C149" s="11"/>
       <c r="D149" s="12"/>
@@ -9798,7 +10481,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="B150" s="31" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C150" s="11"/>
       <c r="D150" s="12"/>
@@ -9808,7 +10491,7 @@
     </row>
     <row r="151" spans="1:7">
       <c r="B151" s="31" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C151" s="11"/>
       <c r="D151" s="12"/>
@@ -9821,7 +10504,7 @@
         <v>257</v>
       </c>
       <c r="B152" s="30" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C152" s="11"/>
       <c r="D152" s="12"/>
@@ -9831,7 +10514,7 @@
     </row>
     <row r="153" spans="1:7">
       <c r="B153" s="30" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C153" s="11"/>
       <c r="D153" s="12"/>
@@ -9841,7 +10524,7 @@
     </row>
     <row r="154" spans="1:7">
       <c r="B154" s="30" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C154" s="11"/>
       <c r="D154" s="12"/>
@@ -9851,7 +10534,7 @@
     </row>
     <row r="155" spans="1:7">
       <c r="B155" s="30" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C155" s="11"/>
       <c r="D155" s="12"/>
@@ -9861,7 +10544,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="B156" s="30" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C156" s="11"/>
       <c r="D156" s="12"/>
@@ -9871,7 +10554,7 @@
     </row>
     <row r="157" spans="1:7">
       <c r="B157" s="30" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="12"/>
@@ -9881,7 +10564,7 @@
     </row>
     <row r="158" spans="1:7">
       <c r="B158" s="30" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C158" s="11"/>
       <c r="D158" s="12"/>
@@ -9891,7 +10574,7 @@
     </row>
     <row r="159" spans="1:7">
       <c r="B159" s="30" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="C159" s="11"/>
       <c r="D159" s="12"/>
@@ -9901,7 +10584,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="B160" s="30" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C160" s="11"/>
       <c r="D160" s="12"/>
@@ -9911,7 +10594,7 @@
     </row>
     <row r="161" spans="2:7">
       <c r="B161" s="30" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C161" s="11"/>
       <c r="D161" s="12"/>
@@ -9921,7 +10604,7 @@
     </row>
     <row r="162" spans="2:7">
       <c r="B162" s="30" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C162" s="11"/>
       <c r="D162" s="12"/>
@@ -9931,7 +10614,7 @@
     </row>
     <row r="163" spans="2:7">
       <c r="B163" s="30" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C163" s="11"/>
       <c r="D163" s="12"/>
@@ -9941,7 +10624,7 @@
     </row>
     <row r="164" spans="2:7">
       <c r="B164" s="30" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="C164" s="11"/>
       <c r="D164" s="12"/>
@@ -9951,7 +10634,7 @@
     </row>
     <row r="165" spans="2:7">
       <c r="B165" s="30" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C165" s="11"/>
       <c r="D165" s="12"/>
@@ -9961,7 +10644,7 @@
     </row>
     <row r="166" spans="2:7">
       <c r="B166" s="30" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C166" s="11"/>
       <c r="D166" s="12"/>
@@ -9971,7 +10654,7 @@
     </row>
     <row r="167" spans="2:7">
       <c r="B167" s="30" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C167" s="11"/>
       <c r="D167" s="12"/>
@@ -9981,7 +10664,7 @@
     </row>
     <row r="168" spans="2:7">
       <c r="B168" s="30" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C168" s="11"/>
       <c r="D168" s="12"/>
@@ -9991,7 +10674,7 @@
     </row>
     <row r="169" spans="2:7">
       <c r="B169" s="30" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C169" s="11"/>
       <c r="D169" s="12"/>
@@ -10001,7 +10684,7 @@
     </row>
     <row r="170" spans="2:7" ht="13" thickBot="1">
       <c r="B170" s="33" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C170" s="14"/>
       <c r="D170" s="15"/>
@@ -10011,7 +10694,7 @@
     </row>
     <row r="171" spans="2:7" ht="13" thickBot="1">
       <c r="B171" s="37" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
     </row>
     <row r="172" spans="2:7">
